--- a/SoilSieve.xlsx
+++ b/SoilSieve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4051D315-9186-4F9A-80E1-470CBC3F4BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C05C84-AC33-4E5D-AAAC-5ECE42A2B709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sieve #</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>Cumulative %</t>
+  </si>
+  <si>
+    <t>fines</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>above 4</t>
+  </si>
+  <si>
+    <t>gravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>keep everything</t>
   </si>
 </sst>
 </file>
@@ -486,22 +504,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0D7D8D-8477-49FF-8FC7-9FA8D978A6D2}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -509,12 +527,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -535,6 +553,38 @@
       </c>
       <c r="G3" t="s">
         <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SoilSieve.xlsx
+++ b/SoilSieve.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C05C84-AC33-4E5D-AAAC-5ECE42A2B709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61576F-DBB4-4A30-BB1A-C96BE64B9FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LB" sheetId="1" r:id="rId1"/>
+    <sheet name="Childs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="29">
   <si>
     <t>Sieve #</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Dry Weight</t>
-  </si>
-  <si>
     <t>Wt of soil retained</t>
   </si>
   <si>
@@ -68,29 +66,71 @@
     <t>Cumulative %</t>
   </si>
   <si>
-    <t>fines</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
     <t>above 4</t>
   </si>
   <si>
     <t>gravel</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>keep everything</t>
+    <t>Below</t>
+  </si>
+  <si>
+    <t>Weight in bag</t>
+  </si>
+  <si>
+    <t>Bag weight</t>
+  </si>
+  <si>
+    <t>LB1</t>
+  </si>
+  <si>
+    <t>LB2</t>
+  </si>
+  <si>
+    <t>Sample Weight</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>LB3</t>
+  </si>
+  <si>
+    <t>LB4</t>
+  </si>
+  <si>
+    <t>LB5</t>
+  </si>
+  <si>
+    <t>LB6</t>
+  </si>
+  <si>
+    <t>LB7</t>
+  </si>
+  <si>
+    <t>LB8</t>
+  </si>
+  <si>
+    <t>LB9</t>
+  </si>
+  <si>
+    <t>LB10</t>
+  </si>
+  <si>
+    <t>%Fines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +138,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,15 +174,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,55 +214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>43054</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FC36F0-85C8-F3D1-EB04-3BFC53C66F4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7258050" y="43054"/>
-          <a:ext cx="4962525" cy="3671695"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,91 +533,1708 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0D7D8D-8477-49FF-8FC7-9FA8D978A6D2}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45693</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45693</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1">
+        <v>45693</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2-B3</f>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <f>I2-I3</f>
+        <v>0.49149999999999994</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <f>P2-P3</f>
+        <v>0.372</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2">
+        <f>W2-W3</f>
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="C7">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.747</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>0.14749999999999996</v>
+      </c>
+      <c r="F7">
+        <f>E7/$B$4*100</f>
+        <v>28.585271317829449</v>
+      </c>
+      <c r="G7">
+        <v>28.585270000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="J7">
+        <v>0.6</v>
+      </c>
+      <c r="K7">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="L7">
+        <f>K7-J7</f>
+        <v>0.18400000000000005</v>
+      </c>
+      <c r="M7">
+        <f>L7/$I$4*100</f>
+        <v>37.436419125127181</v>
+      </c>
+      <c r="N7">
+        <v>37.436419999999998</v>
+      </c>
+      <c r="O7" s="2">
+        <v>4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="Q7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="R7">
+        <v>0.64849999999999997</v>
+      </c>
+      <c r="S7">
+        <f>R7-Q7</f>
+        <v>4.9499999999999988E-2</v>
+      </c>
+      <c r="T7">
+        <f>S7/$P$4*100</f>
+        <v>13.306451612903222</v>
+      </c>
+      <c r="U7">
+        <f>13.30645</f>
+        <v>13.30645</v>
+      </c>
+      <c r="V7" s="2">
+        <v>4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="X7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="Y7">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="Z7">
+        <f>Y7-X7</f>
+        <v>6.9000000000000061E-2</v>
+      </c>
+      <c r="AA7">
+        <f>Z7/$W$4*100</f>
+        <v>19.113573407202232</v>
+      </c>
+      <c r="AB7">
+        <v>19.113569999999999</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="AE7">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="AF7">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="AJ7">
+        <v>4</v>
+      </c>
+      <c r="AK7">
+        <v>4760</v>
+      </c>
+      <c r="AQ7">
+        <v>4</v>
+      </c>
+      <c r="AR7">
+        <v>4760</v>
+      </c>
+      <c r="AX7">
+        <v>4</v>
+      </c>
+      <c r="AY7">
+        <v>4760</v>
+      </c>
+      <c r="BE7">
+        <v>4</v>
+      </c>
+      <c r="BF7">
+        <v>4760</v>
+      </c>
+      <c r="BL7">
+        <v>4</v>
+      </c>
+      <c r="BM7">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E13" si="0">D8-C8</f>
+        <v>0.26449999999999996</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F13" si="1">E8/$B$4*100</f>
+        <v>51.259689922480611</v>
+      </c>
+      <c r="G8">
+        <f>SUM(F$7:F8)</f>
+        <v>79.844961240310056</v>
+      </c>
+      <c r="H8" s="2">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L13" si="2">K8-J8</f>
+        <v>0.17549999999999993</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M12" si="3">L8/$I$4*100</f>
+        <v>35.707019328585957</v>
+      </c>
+      <c r="N8">
+        <f>SUM($M$7:M8)</f>
+        <v>73.143438453713145</v>
+      </c>
+      <c r="O8" s="2">
+        <v>18</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S13" si="4">R8-Q8</f>
+        <v>9.4000000000000028E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T14" si="5">S8/$P$4*100</f>
+        <v>25.268817204301079</v>
+      </c>
+      <c r="U8">
+        <f>SUM($T$7:T8)</f>
+        <v>38.575268817204304</v>
+      </c>
+      <c r="V8" s="2">
+        <v>18</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8:Z13" si="6">Y8-X8</f>
+        <v>0.1235</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ref="AA8:AA13" si="7">Z8/$W$4*100</f>
+        <v>34.210526315789473</v>
+      </c>
+      <c r="AB8">
+        <f>SUM($AA$7:AA8)</f>
+        <v>53.324099722991704</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="AF8">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>18</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>18</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>18</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>18</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>18</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="C9">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>2.9500000000000026E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5.7170542635658963</v>
+      </c>
+      <c r="G9">
+        <f>SUM(F$7:F9)</f>
+        <v>85.562015503875955</v>
+      </c>
+      <c r="H9" s="2">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="J9">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>4.5499999999999985E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>9.2573753814852466</v>
+      </c>
+      <c r="N9">
+        <f>SUM($M$7:M9)</f>
+        <v>82.400813835198392</v>
+      </c>
+      <c r="O9" s="2">
+        <v>25</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="Q9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>3.2500000000000029E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>8.7365591397849531</v>
+      </c>
+      <c r="U9">
+        <f>SUM($T$7:T9)</f>
+        <v>47.311827956989255</v>
+      </c>
+      <c r="V9" s="2">
+        <v>25</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="X9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.47449999999999998</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="6"/>
+        <v>4.9499999999999988E-2</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="7"/>
+        <v>13.711911357340718</v>
+      </c>
+      <c r="AB9">
+        <f>SUM($AA$7:AA9)</f>
+        <v>67.036011080332429</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="AE9">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>25</v>
+      </c>
+      <c r="AK9">
+        <v>0.71</v>
+      </c>
+      <c r="AQ9">
+        <v>25</v>
+      </c>
+      <c r="AR9">
+        <v>0.71</v>
+      </c>
+      <c r="AX9">
+        <v>25</v>
+      </c>
+      <c r="AY9">
+        <v>0.71</v>
+      </c>
+      <c r="BE9">
+        <v>25</v>
+      </c>
+      <c r="BF9">
+        <v>0.71</v>
+      </c>
+      <c r="BL9">
+        <v>25</v>
+      </c>
+      <c r="BM9">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>8.5271317829457338</v>
+      </c>
+      <c r="G10">
+        <f>SUM(F$7:F10)</f>
+        <v>94.089147286821685</v>
+      </c>
+      <c r="H10" s="2">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>13.123092573753818</v>
+      </c>
+      <c r="N10">
+        <f>SUM($M$7:M10)</f>
+        <v>95.523906408952215</v>
+      </c>
+      <c r="O10" s="2">
+        <v>60</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>9.2999999999999972E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="U10">
+        <f>SUM($T$7:T10)</f>
+        <v>72.311827956989248</v>
+      </c>
+      <c r="V10" s="2">
+        <v>60</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="X10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.47949999999999998</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="6"/>
+        <v>9.8499999999999976E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="7"/>
+        <v>27.285318559556782</v>
+      </c>
+      <c r="AB10">
+        <f>SUM($AA$7:AA10)</f>
+        <v>94.321329639889214</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AE10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="AJ10">
+        <v>60</v>
+      </c>
+      <c r="AK10">
+        <v>0.25</v>
+      </c>
+      <c r="AQ10">
+        <v>60</v>
+      </c>
+      <c r="AR10">
+        <v>0.25</v>
+      </c>
+      <c r="AX10">
+        <v>60</v>
+      </c>
+      <c r="AY10">
+        <v>0.25</v>
+      </c>
+      <c r="BE10">
+        <v>60</v>
+      </c>
+      <c r="BF10">
+        <v>0.25</v>
+      </c>
+      <c r="BL10">
+        <v>60</v>
+      </c>
+      <c r="BM10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>170</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C11">
+        <v>0.36</v>
+      </c>
+      <c r="D11">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.7441860465116292</v>
+      </c>
+      <c r="G11">
+        <f>SUM(F$7:F11)</f>
+        <v>95.833333333333314</v>
+      </c>
+      <c r="H11" s="2">
+        <v>170</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="J11">
+        <v>0.36</v>
+      </c>
+      <c r="K11">
+        <v>0.3715</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>1.150000000000001E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>2.3397761953204501</v>
+      </c>
+      <c r="N11">
+        <f>SUM($M$7:M11)</f>
+        <v>97.863682604272668</v>
+      </c>
+      <c r="O11" s="2">
+        <v>170</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>4.3000000000000038E-2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>11.559139784946247</v>
+      </c>
+      <c r="U11">
+        <f>SUM($T$7:T11)</f>
+        <v>83.870967741935488</v>
+      </c>
+      <c r="V11" s="2">
+        <v>170</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="X11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.371</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="7"/>
+        <v>3.3240997229916927</v>
+      </c>
+      <c r="AB11">
+        <f>SUM($AA$7:AA11)</f>
+        <v>97.645429362880904</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>170</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AE11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.3785</v>
+      </c>
+      <c r="AJ11">
+        <v>170</v>
+      </c>
+      <c r="AK11">
+        <v>0.09</v>
+      </c>
+      <c r="AQ11">
+        <v>170</v>
+      </c>
+      <c r="AR11">
+        <v>0.09</v>
+      </c>
+      <c r="AX11">
+        <v>170</v>
+      </c>
+      <c r="AY11">
+        <v>0.09</v>
+      </c>
+      <c r="BE11">
+        <v>170</v>
+      </c>
+      <c r="BF11">
+        <v>0.09</v>
+      </c>
+      <c r="BL11">
+        <v>170</v>
+      </c>
+      <c r="BM11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>230</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.19379844961240328</v>
+      </c>
+      <c r="G12">
+        <f>SUM(F$7:F12)</f>
+        <v>96.027131782945716</v>
+      </c>
+      <c r="H12" s="2">
+        <v>230</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.3745</v>
+      </c>
+      <c r="K12">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1.4242115971515783</v>
+      </c>
+      <c r="N12">
+        <f>SUM($M$7:M12)</f>
+        <v>99.287894201424251</v>
+      </c>
+      <c r="O12" s="2">
+        <v>230</v>
+      </c>
+      <c r="P12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="R12">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>1.3499999999999956E-2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>3.6290322580645045</v>
+      </c>
+      <c r="U12">
+        <f>SUM($T$7:T12)</f>
+        <v>87.499999999999986</v>
+      </c>
+      <c r="V12" s="2">
+        <v>230</v>
+      </c>
+      <c r="W12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="X12">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="Y12">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="7"/>
+        <v>0.27700831024930772</v>
+      </c>
+      <c r="AB12">
+        <f>SUM($AA$7:AA12)</f>
+        <v>97.922437673130219</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>230</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AE12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="AJ12">
+        <v>230</v>
+      </c>
+      <c r="AK12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AQ12">
+        <v>230</v>
+      </c>
+      <c r="AR12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AX12">
+        <v>230</v>
+      </c>
+      <c r="AY12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="BE12">
+        <v>230</v>
+      </c>
+      <c r="BF12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="BL12">
+        <v>230</v>
+      </c>
+      <c r="BM12">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000031E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.6782945736434115</v>
+      </c>
+      <c r="G13">
+        <f>SUM(F$7:F13)</f>
+        <v>96.705426356589129</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.375</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>1.150000000000001E-2</v>
+      </c>
+      <c r="M13">
+        <f>L13/$I$4*100</f>
+        <v>2.3397761953204501</v>
+      </c>
+      <c r="N13">
+        <f>SUM($M$7:M13)</f>
+        <v>101.6276703967447</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>4.8499999999999988E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>13.037634408602147</v>
+      </c>
+      <c r="U13">
+        <f>SUM($T$7:T13)</f>
+        <v>100.53763440860213</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W13" s="2"/>
+      <c r="X13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="6"/>
+        <v>3.5000000000000031E-3</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="7"/>
+        <v>0.96952908587257713</v>
+      </c>
+      <c r="AB13">
+        <f>SUM($AA$7:AA13)</f>
+        <v>98.891966759002798</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>0.373</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F7:F13)</f>
+        <v>96.705426356589129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14">
+        <f>SUM(M7:M13)</f>
+        <v>101.6276703967447</v>
+      </c>
+      <c r="S14">
+        <f>SUM(T7:T13)</f>
+        <v>100.53763440860213</v>
+      </c>
+      <c r="AA14">
+        <f>SUM(AA7:AA13)</f>
+        <v>98.891966759002798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f>SUM(F11:F13)</f>
+        <v>2.6162790697674438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f>SUM(M11:M13)</f>
+        <v>6.1037639877924788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f>SUM(T11:T13)</f>
+        <v>28.225806451612897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f>SUM(AA11:AA13)</f>
+        <v>4.5706371191135773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD1B245-CE1D-4C71-A328-07C1CCEBBC26}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>170</v>
+      </c>
+      <c r="B11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>230</v>
+      </c>
+      <c r="B12">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>200</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SoilSieve.xlsx
+++ b/SoilSieve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61576F-DBB4-4A30-BB1A-C96BE64B9FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2C33E2-4B9E-4CDA-A866-D2B6875884CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0D7D8D-8477-49FF-8FC7-9FA8D978A6D2}">
   <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,6 +611,9 @@
       <c r="X1" t="s">
         <v>5</v>
       </c>
+      <c r="Y1" s="1">
+        <v>45693</v>
+      </c>
       <c r="AC1" s="2" t="s">
         <v>2</v>
       </c>
@@ -620,47 +623,53 @@
       <c r="AE1" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AF1" s="1">
+        <v>45693</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AK1" t="s">
-        <v>15</v>
+      <c r="AK1" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="AL1" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AM1" s="1">
+        <v>45694</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" t="s">
-        <v>15</v>
+      <c r="AR1" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="AS1" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AY1" t="s">
-        <v>15</v>
+      <c r="AY1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AZ1" t="s">
         <v>5</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BF1" t="s">
-        <v>15</v>
+      <c r="BF1" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="BG1" t="s">
         <v>5</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BM1" t="s">
-        <v>15</v>
+      <c r="BM1" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="BN1" t="s">
         <v>5</v>
@@ -698,21 +707,38 @@
       <c r="AE2">
         <v>0.38350000000000001</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AK2" s="2"/>
+      <c r="AL2">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AR2" s="2"/>
+      <c r="AS2">
+        <v>0.2545</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="AY2" s="2"/>
+      <c r="AZ2">
+        <v>0.41</v>
+      </c>
+      <c r="BE2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BF2" s="2"/>
+      <c r="BG2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="BL2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="BM2" s="2"/>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -746,21 +772,38 @@
       <c r="AE3">
         <v>1.2E-2</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AK3" s="2"/>
+      <c r="AL3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AR3" s="2"/>
+      <c r="AS3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AX3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="AY3" s="2"/>
+      <c r="AZ3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BE3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BF3" s="2"/>
+      <c r="BG3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BL3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="BM3" s="2"/>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -787,6 +830,28 @@
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
+      <c r="AE4">
+        <f>AE2-AE3</f>
+        <v>0.3715</v>
+      </c>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4">
+        <f>AL2-AL3</f>
+        <v>0.307</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4">
+        <f>AS2-AS3</f>
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -894,10 +959,10 @@
       <c r="AI5" t="s">
         <v>8</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AL5" t="s">
@@ -915,10 +980,10 @@
       <c r="AP5" t="s">
         <v>8</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AR5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AS5" t="s">
@@ -936,10 +1001,10 @@
       <c r="AW5" t="s">
         <v>8</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AY5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AZ5" t="s">
@@ -957,10 +1022,10 @@
       <c r="BD5" t="s">
         <v>8</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BE5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BF5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BG5" t="s">
@@ -978,10 +1043,10 @@
       <c r="BK5" t="s">
         <v>8</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BL5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BM5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BN5" t="s">
@@ -1031,34 +1096,34 @@
       <c r="AD6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AK6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AR6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AX6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AY6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BE6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BF6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BL6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BM6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1168,34 +1233,113 @@
       <c r="AF7">
         <v>0.75049999999999994</v>
       </c>
-      <c r="AJ7">
+      <c r="AG7">
+        <f>AF7-AE7</f>
+        <v>0.15199999999999991</v>
+      </c>
+      <c r="AH7">
+        <f>AG7/$AE$4*100</f>
+        <v>40.915208613728105</v>
+      </c>
+      <c r="AI7">
+        <v>40.915210000000002</v>
+      </c>
+      <c r="AJ7" s="2">
         <v>4</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="2">
         <v>4760</v>
       </c>
-      <c r="AQ7">
+      <c r="AL7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="AM7">
+        <v>0.6</v>
+      </c>
+      <c r="AN7">
+        <f>AM7-AL7</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="AO7">
+        <f>AN7/$AN$14*100</f>
+        <v>0.32573289902280156</v>
+      </c>
+      <c r="AP7">
+        <v>0.32573000000000002</v>
+      </c>
+      <c r="AQ7" s="2">
         <v>4</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="2">
         <v>4760</v>
       </c>
-      <c r="AX7">
+      <c r="AS7">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="AT7">
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="AU7">
+        <f>AT7-AS7</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="AV7">
+        <f>AU7/$AU$14*100</f>
+        <v>1.6393442622950831</v>
+      </c>
+      <c r="AW7">
+        <v>1.639</v>
+      </c>
+      <c r="AX7" s="2">
         <v>4</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="2">
         <v>4760</v>
       </c>
-      <c r="BE7">
+      <c r="AZ7">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="BA7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="BB7">
+        <f>BA7-AZ7</f>
+        <v>8.499999999999952E-3</v>
+      </c>
+      <c r="BC7">
+        <f>BB7/$BB$14*100</f>
+        <v>2.1329987452948438</v>
+      </c>
+      <c r="BD7">
+        <v>2.1329989999999999</v>
+      </c>
+      <c r="BE7" s="2">
         <v>4</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" s="2">
         <v>4760</v>
       </c>
-      <c r="BL7">
+      <c r="BG7">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="BH7">
+        <v>0.6</v>
+      </c>
+      <c r="BI7">
+        <f>BH7-BG7</f>
+        <v>4.9999999999994493E-4</v>
+      </c>
+      <c r="BJ7">
+        <f>BI7/$BI$14*100</f>
+        <v>0.1792114695340305</v>
+      </c>
+      <c r="BK7">
+        <v>0.17921100000000001</v>
+      </c>
+      <c r="BL7" s="2">
         <v>4</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" s="2">
         <v>4760</v>
       </c>
     </row>
@@ -1265,7 +1409,7 @@
         <v>9.4000000000000028E-2</v>
       </c>
       <c r="T8">
-        <f t="shared" ref="T8:T14" si="5">S8/$P$4*100</f>
+        <f t="shared" ref="T8:T13" si="5">S8/$P$4*100</f>
         <v>25.268817204301079</v>
       </c>
       <c r="U8">
@@ -1308,34 +1452,118 @@
       <c r="AF8">
         <v>0.57850000000000001</v>
       </c>
-      <c r="AJ8">
+      <c r="AG8">
+        <f t="shared" ref="AG8:AG13" si="8">AF8-AE8</f>
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ref="AH8:AH13" si="9">AG8/$AE$4*100</f>
+        <v>31.224764468371465</v>
+      </c>
+      <c r="AI8">
+        <f>SUM($AH$7:AH8)</f>
+        <v>72.139973082099573</v>
+      </c>
+      <c r="AJ8" s="2">
         <v>18</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="2">
         <v>1</v>
       </c>
-      <c r="AQ8">
+      <c r="AL8">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AM8">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" ref="AN8:AN13" si="10">AM8-AL8</f>
+        <v>5.0000000000000044E-4</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" ref="AO8:AO13" si="11">AN8/$AN$14*100</f>
+        <v>0.16286644951140078</v>
+      </c>
+      <c r="AP8">
+        <f>SUM($AO$7:AO8)</f>
+        <v>0.48859934853420234</v>
+      </c>
+      <c r="AQ8" s="2">
         <v>18</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="2">
         <v>1</v>
       </c>
-      <c r="AX8">
+      <c r="AS8">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="AT8">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" ref="AU8:AU12" si="12">AT8-AS8</f>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" ref="AV8:AV13" si="13">AU8/$AU$14*100</f>
+        <v>2.8688524590163951</v>
+      </c>
+      <c r="AW8">
+        <f>SUM($AV$7:AV8)</f>
+        <v>4.508196721311478</v>
+      </c>
+      <c r="AX8" s="2">
         <v>18</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" s="2">
         <v>1</v>
       </c>
-      <c r="BE8">
+      <c r="AZ8">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="BA8">
+        <v>0.49</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" ref="BB8:BB13" si="14">BA8-AZ8</f>
+        <v>2.849999999999997E-2</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" ref="BC8:BC13" si="15">BB8/$BB$14*100</f>
+        <v>7.1518193224592155</v>
+      </c>
+      <c r="BD8">
+        <f>SUM($BC$7:BC8)</f>
+        <v>9.2848180677540597</v>
+      </c>
+      <c r="BE8" s="2">
         <v>18</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" s="2">
         <v>1</v>
       </c>
-      <c r="BL8">
+      <c r="BG8">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="BH8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" ref="BI8:BI13" si="16">BH8-BG8</f>
+        <v>1.4499999999999957E-2</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" ref="BJ8:BJ13" si="17">BI8/$BI$14*100</f>
+        <v>5.1971326164874414</v>
+      </c>
+      <c r="BK8">
+        <f>SUM($BJ$7:BJ8)</f>
+        <v>5.3763440860214722</v>
+      </c>
+      <c r="BL8" s="2">
         <v>18</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1448,34 +1676,118 @@
       <c r="AF9">
         <v>0.44700000000000001</v>
       </c>
-      <c r="AJ9">
+      <c r="AG9">
+        <f t="shared" si="8"/>
+        <v>2.1000000000000019E-2</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="9"/>
+        <v>5.6527590847913913</v>
+      </c>
+      <c r="AI9">
+        <f>SUM($AH$7:AH9)</f>
+        <v>77.792732166890971</v>
+      </c>
+      <c r="AJ9" s="2">
         <v>25</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="2">
         <v>0.71</v>
       </c>
-      <c r="AQ9">
+      <c r="AL9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AM9">
+        <v>0.432</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="10"/>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="11"/>
+        <v>2.280130293159611</v>
+      </c>
+      <c r="AP9">
+        <f>SUM($AO$7:AO9)</f>
+        <v>2.7687296416938132</v>
+      </c>
+      <c r="AQ9" s="2">
         <v>25</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="2">
         <v>0.71</v>
       </c>
-      <c r="AX9">
+      <c r="AS9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AT9">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="12"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="13"/>
+        <v>0.81967213114754156</v>
+      </c>
+      <c r="AW9">
+        <f>SUM($AV$7:AV9)</f>
+        <v>5.3278688524590194</v>
+      </c>
+      <c r="AX9" s="2">
         <v>25</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" s="2">
         <v>0.71</v>
       </c>
-      <c r="BE9">
+      <c r="AZ9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="BA9">
+        <v>0.443</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="15"/>
+        <v>4.5169385194479341</v>
+      </c>
+      <c r="BD9">
+        <f>SUM($BC$7:BC9)</f>
+        <v>13.801756587201993</v>
+      </c>
+      <c r="BE9" s="2">
         <v>25</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" s="2">
         <v>0.71</v>
       </c>
-      <c r="BL9">
+      <c r="BG9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="BH9">
+        <v>0.439</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="16"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="17"/>
+        <v>5.0179211469534106</v>
+      </c>
+      <c r="BK9">
+        <f>SUM($BJ$7:BJ9)</f>
+        <v>10.394265232974883</v>
+      </c>
+      <c r="BL9" s="2">
         <v>25</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" s="2">
         <v>0.71</v>
       </c>
     </row>
@@ -1588,34 +1900,118 @@
       <c r="AF10">
         <v>0.43099999999999999</v>
       </c>
-      <c r="AJ10">
+      <c r="AG10">
+        <f t="shared" si="8"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="9"/>
+        <v>13.458950201884251</v>
+      </c>
+      <c r="AI10">
+        <f>SUM($AH$7:AH10)</f>
+        <v>91.251682368775221</v>
+      </c>
+      <c r="AJ10" s="2">
         <v>60</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="2">
         <v>0.25</v>
       </c>
-      <c r="AQ10">
+      <c r="AL10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AM10">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="10"/>
+        <v>1.8500000000000016E-2</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="11"/>
+        <v>6.0260586319218286</v>
+      </c>
+      <c r="AP10">
+        <f>SUM($AO$7:AO10)</f>
+        <v>8.7947882736156409</v>
+      </c>
+      <c r="AQ10" s="2">
         <v>60</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="2">
         <v>0.25</v>
       </c>
-      <c r="AX10">
+      <c r="AS10">
+        <v>0.3805</v>
+      </c>
+      <c r="AT10">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="12"/>
+        <v>1.0500000000000009E-2</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="13"/>
+        <v>4.3032786885245926</v>
+      </c>
+      <c r="AW10">
+        <f>SUM($AV$7:AV10)</f>
+        <v>9.631147540983612</v>
+      </c>
+      <c r="AX10" s="2">
         <v>60</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" s="2">
         <v>0.25</v>
       </c>
-      <c r="BE10">
+      <c r="AZ10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BA10">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="14"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="15"/>
+        <v>16.060225846925974</v>
+      </c>
+      <c r="BD10">
+        <f>SUM($BC$7:BC10)</f>
+        <v>29.861982434127967</v>
+      </c>
+      <c r="BE10" s="2">
         <v>60</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" s="2">
         <v>0.25</v>
       </c>
-      <c r="BL10">
+      <c r="BG10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BH10">
+        <v>0.44</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="16"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="17"/>
+        <v>21.146953405017925</v>
+      </c>
+      <c r="BK10">
+        <f>SUM($BJ$7:BJ10)</f>
+        <v>31.541218637992806</v>
+      </c>
+      <c r="BL10" s="2">
         <v>60</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" s="2">
         <v>0.25</v>
       </c>
     </row>
@@ -1728,34 +2124,118 @@
       <c r="AF11">
         <v>0.3785</v>
       </c>
-      <c r="AJ11">
+      <c r="AG11">
+        <f t="shared" si="8"/>
+        <v>1.9500000000000017E-2</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="9"/>
+        <v>5.2489905787348636</v>
+      </c>
+      <c r="AI11">
+        <f>SUM($AH$7:AH11)</f>
+        <v>96.500672947510083</v>
+      </c>
+      <c r="AJ11" s="2">
         <v>170</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="2">
         <v>0.09</v>
       </c>
-      <c r="AQ11">
+      <c r="AL11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AM11">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="10"/>
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="11"/>
+        <v>17.915309446254067</v>
+      </c>
+      <c r="AP11">
+        <f>SUM($AO$7:AO11)</f>
+        <v>26.710097719869708</v>
+      </c>
+      <c r="AQ11" s="2">
         <v>170</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="2">
         <v>0.09</v>
       </c>
-      <c r="AX11">
+      <c r="AS11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AT11">
+        <v>0.443</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="12"/>
+        <v>8.4000000000000019E-2</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="13"/>
+        <v>34.42622950819672</v>
+      </c>
+      <c r="AW11">
+        <f>SUM($AV$7:AV11)</f>
+        <v>44.057377049180332</v>
+      </c>
+      <c r="AX11" s="2">
         <v>170</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" s="2">
         <v>0.09</v>
       </c>
-      <c r="BE11">
+      <c r="AZ11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="BA11">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="BB11">
+        <f t="shared" si="14"/>
+        <v>0.14900000000000002</v>
+      </c>
+      <c r="BC11">
+        <f t="shared" si="15"/>
+        <v>37.390213299874539</v>
+      </c>
+      <c r="BD11">
+        <f>SUM($BC$7:BC11)</f>
+        <v>67.252195734002498</v>
+      </c>
+      <c r="BE11" s="2">
         <v>170</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" s="2">
         <v>0.09</v>
       </c>
-      <c r="BL11">
+      <c r="BG11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="BH11">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="BI11">
+        <f t="shared" si="16"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="BJ11">
+        <f t="shared" si="17"/>
+        <v>22.93906810035843</v>
+      </c>
+      <c r="BK11">
+        <f>SUM($BJ$7:BJ11)</f>
+        <v>54.480286738351239</v>
+      </c>
+      <c r="BL11" s="2">
         <v>170</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" s="2">
         <v>0.09</v>
       </c>
     </row>
@@ -1868,34 +2348,118 @@
       <c r="AF12">
         <v>0.39700000000000002</v>
       </c>
-      <c r="AJ12">
+      <c r="AG12">
+        <f t="shared" si="8"/>
+        <v>4.500000000000004E-3</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="9"/>
+        <v>1.2113055181695838</v>
+      </c>
+      <c r="AI12">
+        <f>SUM($AH$7:AH12)</f>
+        <v>97.711978465679664</v>
+      </c>
+      <c r="AJ12" s="2">
         <v>230</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="AQ12">
+      <c r="AL12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="AM12">
+        <v>0.442</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="10"/>
+        <v>4.9499999999999988E-2</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="11"/>
+        <v>16.123778501628657</v>
+      </c>
+      <c r="AP12">
+        <f>SUM($AO$7:AO12)</f>
+        <v>42.833876221498365</v>
+      </c>
+      <c r="AQ12" s="2">
         <v>230</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="AX12">
+      <c r="AS12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="AT12">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="12"/>
+        <v>5.5499999999999994E-2</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="13"/>
+        <v>22.745901639344254</v>
+      </c>
+      <c r="AW12">
+        <f>SUM($AV$7:AV12)</f>
+        <v>66.803278688524586</v>
+      </c>
+      <c r="AX12" s="2">
         <v>230</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="BE12">
+      <c r="AZ12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="BA12">
+        <v>0.436</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="14"/>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="15"/>
+        <v>11.041405269761603</v>
+      </c>
+      <c r="BD12">
+        <f>SUM($BC$7:BC12)</f>
+        <v>78.293601003764095</v>
+      </c>
+      <c r="BE12" s="2">
         <v>230</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="BL12">
+      <c r="BG12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="BH12">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="16"/>
+        <v>3.8999999999999979E-2</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="17"/>
+        <v>13.97849462365591</v>
+      </c>
+      <c r="BK12">
+        <f>SUM($BJ$7:BJ12)</f>
+        <v>68.458781362007144</v>
+      </c>
+      <c r="BL12" s="2">
         <v>230</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" s="2">
         <v>6.3E-2</v>
       </c>
     </row>
@@ -1998,21 +2562,110 @@
       <c r="AF13">
         <v>0.373</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AG13">
+        <f t="shared" si="8"/>
+        <v>9.5000000000000084E-3</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="9"/>
+        <v>2.5572005383580105</v>
+      </c>
+      <c r="AI13">
+        <f>SUM($AH$7:AH13)</f>
+        <v>100.26917900403768</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AK13" s="2"/>
+      <c r="AL13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="AM13">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="10"/>
+        <v>0.17550000000000004</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="11"/>
+        <v>57.166123778501628</v>
+      </c>
+      <c r="AP13">
+        <f>SUM($AO$7:AO13)</f>
+        <v>100</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AR13" s="2"/>
+      <c r="AS13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="AT13">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="AU13">
+        <f>AT13-AS13</f>
+        <v>8.1000000000000016E-2</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="13"/>
+        <v>33.196721311475407</v>
+      </c>
+      <c r="AW13">
+        <f>SUM($AV$7:AV13)</f>
+        <v>100</v>
+      </c>
+      <c r="AX13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="AY13" s="2"/>
+      <c r="AZ13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="BA13">
+        <v>0.45</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="14"/>
+        <v>8.6500000000000021E-2</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="15"/>
+        <v>21.706398996235894</v>
+      </c>
+      <c r="BD13">
+        <f>SUM($BC$7:BC13)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="BE13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BF13" s="2"/>
+      <c r="BG13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="BH13">
+        <v>0.45150000000000001</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="16"/>
+        <v>8.8000000000000023E-2</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="17"/>
+        <v>31.541218637992852</v>
+      </c>
+      <c r="BK13">
+        <f>SUM($BJ$7:BJ13)</f>
+        <v>100</v>
+      </c>
+      <c r="BL13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="BM13" s="2"/>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
@@ -2037,6 +2690,30 @@
         <f>SUM(AA7:AA13)</f>
         <v>98.891966759002798</v>
       </c>
+      <c r="AH14">
+        <f>SUM(AH7:AH13)</f>
+        <v>100.26917900403768</v>
+      </c>
+      <c r="AN14">
+        <f>SUM(AN7:AN13)</f>
+        <v>0.30700000000000005</v>
+      </c>
+      <c r="AO14">
+        <f>SUM(AO7:AO13)</f>
+        <v>100</v>
+      </c>
+      <c r="AU14">
+        <f>SUM(AU7:AU13)</f>
+        <v>0.24400000000000005</v>
+      </c>
+      <c r="BB14">
+        <f>SUM(BB7:BB13)</f>
+        <v>0.39849999999999997</v>
+      </c>
+      <c r="BI14">
+        <f>SUM(BI7:BI13)</f>
+        <v>0.27899999999999991</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -2086,25 +2763,45 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="B22">
+        <f>SUM(AH11:AH13)</f>
+        <v>9.0174966352624573</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="B23">
+        <f>SUM(AO11:AO13)</f>
+        <v>91.205211726384348</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24">
+        <f>SUM(AV11:AV13)</f>
+        <v>90.368852459016381</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25">
+        <f>SUM(BC11:BC13)</f>
+        <v>70.138017565872033</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
+      </c>
+      <c r="B26">
+        <f>SUM(BJ11:BJ13)</f>
+        <v>68.458781362007187</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">

--- a/SoilSieve.xlsx
+++ b/SoilSieve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2C33E2-4B9E-4CDA-A866-D2B6875884CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCA3FA9-7DB3-4CE2-AD0F-916983F319E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="33">
   <si>
     <t>Sieve #</t>
   </si>
@@ -125,6 +125,18 @@
   <si>
     <t>%Fines</t>
   </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
 </sst>
 </file>
 
@@ -194,10 +206,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0D7D8D-8477-49FF-8FC7-9FA8D978A6D2}">
   <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,6 +687,9 @@
       <c r="BN1" t="s">
         <v>5</v>
       </c>
+      <c r="BO1" s="3">
+        <v>45698</v>
+      </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -739,6 +755,9 @@
         <v>12</v>
       </c>
       <c r="BM2" s="2"/>
+      <c r="BN2">
+        <v>0.33750000000000002</v>
+      </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -804,6 +823,9 @@
         <v>13</v>
       </c>
       <c r="BM3" s="2"/>
+      <c r="BN3">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1342,6 +1364,23 @@
       <c r="BM7" s="2">
         <v>4760</v>
       </c>
+      <c r="BN7">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="BO7">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="BP7">
+        <f>BO7-BN7</f>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="BQ7">
+        <f>BP7/$BP$14*100</f>
+        <v>42.638036809815944</v>
+      </c>
+      <c r="BR7">
+        <v>42.63</v>
+      </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1566,6 +1605,24 @@
       <c r="BM8" s="2">
         <v>1</v>
       </c>
+      <c r="BN8">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="BO8">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" ref="BP8:BP13" si="18">BO8-BN8</f>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" ref="BQ8:BQ13" si="19">BP8/$BP$14*100</f>
+        <v>41.717791411042938</v>
+      </c>
+      <c r="BR8">
+        <f>SUM($BQ$7:BQ8)</f>
+        <v>84.355828220858882</v>
+      </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -1790,6 +1847,24 @@
       <c r="BM9" s="2">
         <v>0.71</v>
       </c>
+      <c r="BN9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="BO9">
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="BP9">
+        <f t="shared" si="18"/>
+        <v>2.1500000000000019E-2</v>
+      </c>
+      <c r="BQ9">
+        <f t="shared" si="19"/>
+        <v>6.5950920245398823</v>
+      </c>
+      <c r="BR9">
+        <f>SUM($BQ$7:BQ9)</f>
+        <v>90.950920245398763</v>
+      </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -2014,6 +2089,24 @@
       <c r="BM10" s="2">
         <v>0.25</v>
       </c>
+      <c r="BN10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BO10">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="BP10">
+        <f t="shared" si="18"/>
+        <v>2.250000000000002E-2</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" si="19"/>
+        <v>6.9018404907975501</v>
+      </c>
+      <c r="BR10">
+        <f>SUM($BQ$7:BQ10)</f>
+        <v>97.852760736196316</v>
+      </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -2238,6 +2331,24 @@
       <c r="BM11" s="2">
         <v>0.09</v>
       </c>
+      <c r="BN11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="BO11">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="BP11">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="BQ11">
+        <f t="shared" si="19"/>
+        <v>1.5337423312883447</v>
+      </c>
+      <c r="BR11">
+        <f>SUM($BQ$7:BQ11)</f>
+        <v>99.386503067484668</v>
+      </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -2462,6 +2573,24 @@
       <c r="BM12" s="2">
         <v>6.3E-2</v>
       </c>
+      <c r="BN12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="BO12">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000044E-4</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="19"/>
+        <v>0.15337423312883447</v>
+      </c>
+      <c r="BR12">
+        <f>SUM($BQ$7:BQ12)</f>
+        <v>99.539877300613497</v>
+      </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -2666,6 +2795,24 @@
         <v>11</v>
       </c>
       <c r="BM13" s="2"/>
+      <c r="BN13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="BO13">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="18"/>
+        <v>1.5000000000000013E-3</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="19"/>
+        <v>0.46012269938650335</v>
+      </c>
+      <c r="BR13">
+        <f>SUM($BQ$7:BQ13)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
@@ -2714,6 +2861,10 @@
         <f>SUM(BI7:BI13)</f>
         <v>0.27899999999999991</v>
       </c>
+      <c r="BP14">
+        <f>SUM(BP7:BP13)</f>
+        <v>0.32600000000000007</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -2807,6 +2958,10 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
+      </c>
+      <c r="B27">
+        <f>SUM(BQ11:BQ13)</f>
+        <v>2.1472392638036828</v>
       </c>
     </row>
   </sheetData>
@@ -2818,40 +2973,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD1B245-CE1D-4C71-A328-07C1CCEBBC26}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2">
+        <v>0.91100000000000003</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3">
+        <v>1.2E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -2869,66 +3139,982 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>4760</v>
       </c>
+      <c r="C7">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="D7">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="E7">
+        <f>D7-C7</f>
+        <v>0.23749999999999993</v>
+      </c>
+      <c r="F7">
+        <f>E7/$E$14*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G7">
+        <v>33.711849999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="J7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="L7">
+        <f>K7-J7</f>
+        <v>0.13</v>
+      </c>
+      <c r="M7">
+        <f>L7/$L$14*100</f>
+        <v>29.345372460496616</v>
+      </c>
+      <c r="N7">
+        <v>0.17921100000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="Q7">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="R7">
+        <v>0.85</v>
+      </c>
+      <c r="S7">
+        <f>R7-Q7</f>
+        <v>0.251</v>
+      </c>
+      <c r="T7">
+        <f>S7/$S$14*100</f>
+        <v>35.678749111584942</v>
+      </c>
+      <c r="U7">
+        <v>35.338070000000002</v>
+      </c>
+      <c r="V7" s="2">
+        <v>4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="X7">
+        <v>0.6</v>
+      </c>
+      <c r="Y7">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="Z7">
+        <f>Y7-X7</f>
+        <v>0.30500000000000005</v>
+      </c>
+      <c r="AA7">
+        <f>Z7/$Z$14*100</f>
+        <v>45.830202854996251</v>
+      </c>
+      <c r="AB7">
+        <v>45.830199999999998</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="AE7">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="AF7">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="AG7">
+        <f>AF7-AE7</f>
+        <v>0.68449999999999989</v>
+      </c>
+      <c r="AH7">
+        <f>AG7/$AG$14*100</f>
+        <v>76.097832128960547</v>
+      </c>
+      <c r="AI7">
+        <v>76.097830000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.8095</v>
+      </c>
+      <c r="E8">
+        <f>D8-C8</f>
+        <v>0.20850000000000002</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F13" si="0">E8/$E$14*100</f>
+        <v>29.263157894736846</v>
+      </c>
+      <c r="G8">
+        <f>SUM($F$7:F8)</f>
+        <v>62.596491228070178</v>
+      </c>
+      <c r="H8" s="2">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L13" si="1">K8-J8</f>
+        <v>0.23349999999999999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M13" si="2">L8/$L$14*100</f>
+        <v>52.708803611738141</v>
+      </c>
+      <c r="N8">
+        <f>SUM($G$7:M8)</f>
+        <v>4964.2155173003057</v>
+      </c>
+      <c r="O8" s="2">
+        <v>18</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="S8">
+        <f>R8-Q8</f>
+        <v>0.3</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T13" si="3">S8/$S$14*100</f>
+        <v>42.643923240938179</v>
+      </c>
+      <c r="U8">
+        <f>SUM(T$7:T8)</f>
+        <v>78.322672352523114</v>
+      </c>
+      <c r="V8" s="2">
+        <v>18</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8:Z13" si="4">Y8-X8</f>
+        <v>0.23849999999999993</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ref="AA8:AA13" si="5">Z8/$Z$14*100</f>
+        <v>35.837716003005248</v>
+      </c>
+      <c r="AB8">
+        <f>SUM(AA$7:AA8)</f>
+        <v>81.667918858001499</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="AF8">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="AG8">
+        <f>AF8-AE8</f>
+        <v>2.6499999999999968E-2</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ref="AH8:AH13" si="6">AG8/$AG$14*100</f>
+        <v>2.9460811561978848</v>
+      </c>
+      <c r="AI8">
+        <f>SUM(AH$7:AH8)</f>
+        <v>79.043913285158439</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>25</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.71</v>
       </c>
+      <c r="C9">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="E9">
+        <f>D9-C9</f>
+        <v>5.1499999999999935E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>7.2280701754385879</v>
+      </c>
+      <c r="G9">
+        <f>SUM($F$7:F9)</f>
+        <v>69.824561403508767</v>
+      </c>
+      <c r="H9" s="2">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="J9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>7.6749435665914287</v>
+      </c>
+      <c r="N9">
+        <f>SUM($G$7:M9)</f>
+        <v>5068.3430222704055</v>
+      </c>
+      <c r="O9" s="2">
+        <v>25</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="Q9">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.45</v>
+      </c>
+      <c r="S9">
+        <f>R9-Q9</f>
+        <v>2.4500000000000022E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>3.482587064676621</v>
+      </c>
+      <c r="U9">
+        <f>SUM(T$7:T9)</f>
+        <v>81.805259417199736</v>
+      </c>
+      <c r="V9" s="2">
+        <v>25</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="X9">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="4"/>
+        <v>4.9499999999999988E-2</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="5"/>
+        <v>7.438016528925619</v>
+      </c>
+      <c r="AB9">
+        <f>SUM(AA$7:AA9)</f>
+        <v>89.105935386927115</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="AE9">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.45</v>
+      </c>
+      <c r="AG9">
+        <f>AF9-AE9</f>
+        <v>2.4500000000000022E-2</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="6"/>
+        <v>2.7237354085603145</v>
+      </c>
+      <c r="AI9">
+        <f>SUM(AH$7:AH9)</f>
+        <v>81.767648693718755</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>60</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.25</v>
       </c>
+      <c r="C10">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E10">
+        <f>D10-C10</f>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>17.543859649122815</v>
+      </c>
+      <c r="G10">
+        <f>SUM($F$7:F10)</f>
+        <v>87.368421052631589</v>
+      </c>
+      <c r="H10" s="2">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999967E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>5.7562076749435596</v>
+      </c>
+      <c r="N10">
+        <f>SUM($G$7:M10)</f>
+        <v>5222.530650997981</v>
+      </c>
+      <c r="O10" s="2">
+        <v>60</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q10">
+        <v>0.3805</v>
+      </c>
+      <c r="R10">
+        <v>0.437</v>
+      </c>
+      <c r="S10">
+        <f>R10-Q10</f>
+        <v>5.6499999999999995E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>8.0312722103766898</v>
+      </c>
+      <c r="U10">
+        <f>SUM(T$7:T10)</f>
+        <v>89.83653162757642</v>
+      </c>
+      <c r="V10" s="2">
+        <v>60</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="X10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.437</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="4"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="5"/>
+        <v>8.4147257700976699</v>
+      </c>
+      <c r="AB10">
+        <f>SUM(AA$7:AA10)</f>
+        <v>97.52066115702479</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AE10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="AG10">
+        <f>AF10-AE10</f>
+        <v>0.11949999999999994</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="6"/>
+        <v>13.285158421345189</v>
+      </c>
+      <c r="AI10">
+        <f>SUM(AH$7:AH10)</f>
+        <v>95.052807115063942</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>170</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.09</v>
       </c>
+      <c r="C11">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="E11">
+        <f>D11-C11</f>
+        <v>2.6499999999999968E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>3.7192982456140311</v>
+      </c>
+      <c r="G11">
+        <f>SUM($F$7:F11)</f>
+        <v>91.087719298245617</v>
+      </c>
+      <c r="H11" s="2">
+        <v>170</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="J11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000075E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1.9187358916478572</v>
+      </c>
+      <c r="N11">
+        <f>SUM($G$7:M11)</f>
+        <v>5486.3621061878748</v>
+      </c>
+      <c r="O11" s="2">
+        <v>170</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.3755</v>
+      </c>
+      <c r="S11">
+        <f>R11-Q11</f>
+        <v>1.6500000000000015E-2</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>2.3454157782516019</v>
+      </c>
+      <c r="U11">
+        <f>SUM(T$7:T11)</f>
+        <v>92.181947405828026</v>
+      </c>
+      <c r="V11" s="2">
+        <v>170</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="X11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="4"/>
+        <v>7.5000000000000067E-3</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="5"/>
+        <v>1.1269722013523675</v>
+      </c>
+      <c r="AB11">
+        <f>SUM(AA$7:AA11)</f>
+        <v>98.647633358377163</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>170</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AE11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="AG11">
+        <f>AF11-AE11</f>
+        <v>2.8000000000000025E-2</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="6"/>
+        <v>3.1128404669260736</v>
+      </c>
+      <c r="AI11">
+        <f>SUM(AH$7:AH11)</f>
+        <v>98.165647581990015</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>230</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>6.3E-2</v>
       </c>
+      <c r="C12">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E12">
+        <f>D12-C12</f>
+        <v>4.3000000000000038E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>6.0350877192982519</v>
+      </c>
+      <c r="G12">
+        <f>SUM($F$7:F12)</f>
+        <v>97.122807017543863</v>
+      </c>
+      <c r="H12" s="2">
+        <v>230</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0.67720090293453783</v>
+      </c>
+      <c r="N12">
+        <f>SUM($G$7:M12)</f>
+        <v>5815.0161141083527</v>
+      </c>
+      <c r="O12" s="2">
+        <v>230</v>
+      </c>
+      <c r="P12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="R12">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="S12">
+        <f>R12-Q12</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>1.2793176972281466</v>
+      </c>
+      <c r="U12">
+        <f>SUM(T$7:T12)</f>
+        <v>93.461265103056178</v>
+      </c>
+      <c r="V12" s="2">
+        <v>230</v>
+      </c>
+      <c r="W12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="X12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Y12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-4</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>7.513148009015784E-2</v>
+      </c>
+      <c r="AB12">
+        <f>SUM(AA$7:AA12)</f>
+        <v>98.722764838467327</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>230</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AE12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="AG12">
+        <f>AF12-AE12</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="6"/>
+        <v>0.2223457476375767</v>
+      </c>
+      <c r="AI12">
+        <f>SUM(AH$7:AH12)</f>
+        <v>98.387993329627591</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E13">
+        <f>D13-C13</f>
+        <v>2.0500000000000018E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.8771929824561431</v>
+      </c>
+      <c r="G13">
+        <f>SUM($F$7:F13)</f>
+        <v>100</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.372</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000075E-3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>1.9187358916478572</v>
+      </c>
+      <c r="N13">
+        <f>SUM($G$7:M13)</f>
+        <v>5917.6788500000011</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="S13">
+        <f>R13-Q13</f>
+        <v>4.5999999999999985E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>6.5387348969438515</v>
+      </c>
+      <c r="U13">
+        <f>SUM(T$7:T13)</f>
+        <v>100.00000000000003</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W13" s="2"/>
+      <c r="X13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>0.372</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="4"/>
+        <v>8.5000000000000075E-3</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="5"/>
+        <v>1.2772351615326833</v>
+      </c>
+      <c r="AB13">
+        <f>SUM(AA$7:AA13)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>0.378</v>
+      </c>
+      <c r="AG13">
+        <f>AF13-AE13</f>
+        <v>1.4500000000000013E-2</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="6"/>
+        <v>1.6120066703724309</v>
+      </c>
+      <c r="AI13">
+        <f>SUM(AH$7:AH13)</f>
+        <v>100.00000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>SUM(E7:E13)</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="L14">
+        <f>SUM(L7:L13)</f>
+        <v>0.443</v>
+      </c>
+      <c r="S14">
+        <f>SUM(S7:S13)</f>
+        <v>0.70349999999999979</v>
+      </c>
+      <c r="Z14">
+        <f>SUM(Z7:Z13)</f>
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="AG14">
+        <f>SUM(AG7:AG13)</f>
+        <v>0.89949999999999974</v>
       </c>
     </row>
   </sheetData>

--- a/SoilSieve.xlsx
+++ b/SoilSieve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCA3FA9-7DB3-4CE2-AD0F-916983F319E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814EDD86-B2FA-44E4-A42D-BBCBF80CA557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="39">
   <si>
     <t>Sieve #</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
   </si>
 </sst>
 </file>
@@ -2973,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD1B245-CE1D-4C71-A328-07C1CCEBBC26}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2984,7 +3002,7 @@
     <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3025,13 +3043,73 @@
         <v>2</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE1" t="s">
         <v>5</v>
       </c>
+      <c r="AJ1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>45699</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>45699</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA1" s="3">
+        <v>45699</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>45699</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>45699</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -3067,8 +3145,43 @@
       <c r="AE2">
         <v>0.91100000000000003</v>
       </c>
+      <c r="AJ2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2">
+        <v>1.254</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" s="2"/>
+      <c r="AS2">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY2" s="2"/>
+      <c r="AZ2">
+        <v>1.254</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF2" s="2"/>
+      <c r="BG2">
+        <v>1.254</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM2" s="2"/>
+      <c r="BN2">
+        <v>1.254</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3104,8 +3217,43 @@
       <c r="AE3">
         <v>1.2E-2</v>
       </c>
+      <c r="AJ3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3" s="2"/>
+      <c r="AL3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR3" s="2"/>
+      <c r="AS3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY3" s="2"/>
+      <c r="AZ3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BF3" s="2"/>
+      <c r="BG3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM3" s="2"/>
+      <c r="BN3">
+        <v>1.2E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="H4" s="2"/>
@@ -3116,8 +3264,18 @@
       <c r="W4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3223,8 +3381,113 @@
       <c r="AI5" t="s">
         <v>8</v>
       </c>
+      <c r="AJ5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -3255,8 +3518,38 @@
       <c r="AD6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="AJ6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3270,7 +3563,7 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="E7">
-        <f>D7-C7</f>
+        <f t="shared" ref="E7:E13" si="0">D7-C7</f>
         <v>0.23749999999999993</v>
       </c>
       <c r="F7">
@@ -3316,7 +3609,7 @@
         <v>0.85</v>
       </c>
       <c r="S7">
-        <f>R7-Q7</f>
+        <f t="shared" ref="S7:S13" si="1">R7-Q7</f>
         <v>0.251</v>
       </c>
       <c r="T7">
@@ -3362,7 +3655,7 @@
         <v>1.2849999999999999</v>
       </c>
       <c r="AG7">
-        <f>AF7-AE7</f>
+        <f t="shared" ref="AG7:AG13" si="2">AF7-AE7</f>
         <v>0.68449999999999989</v>
       </c>
       <c r="AH7">
@@ -3372,8 +3665,117 @@
       <c r="AI7">
         <v>76.097830000000002</v>
       </c>
+      <c r="AJ7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="AL7">
+        <v>0.6</v>
+      </c>
+      <c r="AM7">
+        <v>1.038</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" ref="AN7:AN13" si="3">AM7-AL7</f>
+        <v>0.43800000000000006</v>
+      </c>
+      <c r="AO7">
+        <f>AN7/$AN$14*100</f>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="AP7">
+        <v>35.294119999999999</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="AS7">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="AT7">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" ref="AU7:AU13" si="4">AT7-AS7</f>
+        <v>0.30199999999999994</v>
+      </c>
+      <c r="AV7">
+        <f>AU7/$AU$14*100</f>
+        <v>33.278236914600534</v>
+      </c>
+      <c r="AW7">
+        <v>76.097830000000002</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="AZ7">
+        <v>0.6</v>
+      </c>
+      <c r="BA7">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" ref="BB7:BB13" si="5">BA7-AZ7</f>
+        <v>7.900000000000007E-2</v>
+      </c>
+      <c r="BC7">
+        <f>BB7/$BB$14*100</f>
+        <v>8.7004405286343669</v>
+      </c>
+      <c r="BD7">
+        <v>76.097830000000002</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>4</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="BG7">
+        <v>0.6</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" ref="BI7:BI13" si="6">BH7-BG7</f>
+        <v>-0.6</v>
+      </c>
+      <c r="BJ7">
+        <f>BI7/$AG$14*100</f>
+        <v>-66.703724291272948</v>
+      </c>
+      <c r="BK7">
+        <v>76.097830000000002</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>4</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>4760</v>
+      </c>
+      <c r="BN7">
+        <v>0.6</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" ref="BP7:BP13" si="7">BO7-BN7</f>
+        <v>-0.6</v>
+      </c>
+      <c r="BQ7">
+        <f>BP7/$AG$14*100</f>
+        <v>-66.703724291272948</v>
+      </c>
+      <c r="BR7">
+        <v>76.097830000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>18</v>
       </c>
@@ -3387,11 +3789,11 @@
         <v>0.8095</v>
       </c>
       <c r="E8">
-        <f>D8-C8</f>
+        <f t="shared" si="0"/>
         <v>0.20850000000000002</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F13" si="0">E8/$E$14*100</f>
+        <f t="shared" ref="F8:F13" si="8">E8/$E$14*100</f>
         <v>29.263157894736846</v>
       </c>
       <c r="G8">
@@ -3411,11 +3813,11 @@
         <v>0.69550000000000001</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L13" si="1">K8-J8</f>
+        <f t="shared" ref="L8:L13" si="9">K8-J8</f>
         <v>0.23349999999999999</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M13" si="2">L8/$L$14*100</f>
+        <f t="shared" ref="M8:M13" si="10">L8/$L$14*100</f>
         <v>52.708803611738141</v>
       </c>
       <c r="N8">
@@ -3435,11 +3837,11 @@
         <v>0.76200000000000001</v>
       </c>
       <c r="S8">
-        <f>R8-Q8</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="T8">
-        <f t="shared" ref="T8:T13" si="3">S8/$S$14*100</f>
+        <f t="shared" ref="T8:T13" si="11">S8/$S$14*100</f>
         <v>42.643923240938179</v>
       </c>
       <c r="U8">
@@ -3459,11 +3861,11 @@
         <v>0.70099999999999996</v>
       </c>
       <c r="Z8">
-        <f t="shared" ref="Z8:Z13" si="4">Y8-X8</f>
+        <f t="shared" ref="Z8:Z13" si="12">Y8-X8</f>
         <v>0.23849999999999993</v>
       </c>
       <c r="AA8">
-        <f t="shared" ref="AA8:AA13" si="5">Z8/$Z$14*100</f>
+        <f t="shared" ref="AA8:AA13" si="13">Z8/$Z$14*100</f>
         <v>35.837716003005248</v>
       </c>
       <c r="AB8">
@@ -3483,19 +3885,133 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="AG8">
-        <f>AF8-AE8</f>
+        <f t="shared" si="2"/>
         <v>2.6499999999999968E-2</v>
       </c>
       <c r="AH8">
-        <f t="shared" ref="AH8:AH13" si="6">AG8/$AG$14*100</f>
+        <f t="shared" ref="AH8:AH13" si="14">AG8/$AG$14*100</f>
         <v>2.9460811561978848</v>
       </c>
       <c r="AI8">
         <f>SUM(AH$7:AH8)</f>
         <v>79.043913285158439</v>
       </c>
+      <c r="AJ8" s="2">
+        <v>18</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="AM8">
+        <v>1.0275000000000001</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="3"/>
+        <v>0.56500000000000006</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" ref="AO8:AO13" si="15">AN8/$AN$14*100</f>
+        <v>45.52780016116035</v>
+      </c>
+      <c r="AP8">
+        <f>SUM(AO$7:AO8)</f>
+        <v>80.821917808219183</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>18</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="AT8">
+        <v>0.74550000000000005</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="4"/>
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" ref="AV8:AV13" si="16">AU8/$AU$14*100</f>
+        <v>31.074380165289249</v>
+      </c>
+      <c r="AW8">
+        <f>SUM(AV$7:AV8)</f>
+        <v>64.352617079889782</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>18</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="BA8">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="5"/>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" ref="BC8:BC13" si="17">BB8/$BB$14*100</f>
+        <v>21.365638766519819</v>
+      </c>
+      <c r="BD8">
+        <f>SUM(BC$7:BC8)</f>
+        <v>30.066079295154186</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>18</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="6"/>
+        <v>-0.46250000000000002</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" ref="BJ8:BJ13" si="18">BI8/$AG$14*100</f>
+        <v>-51.417454141189566</v>
+      </c>
+      <c r="BK8">
+        <f>SUM(BJ$7:BJ8)</f>
+        <v>-118.12117843246251</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>18</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" si="7"/>
+        <v>-0.46250000000000002</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" ref="BQ8:BQ13" si="19">BP8/$AG$14*100</f>
+        <v>-51.417454141189566</v>
+      </c>
+      <c r="BR8">
+        <f>SUM(BQ$7:BQ8)</f>
+        <v>-118.12117843246251</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>25</v>
       </c>
@@ -3509,11 +4025,11 @@
         <v>0.51349999999999996</v>
       </c>
       <c r="E9">
-        <f>D9-C9</f>
+        <f t="shared" si="0"/>
         <v>5.1499999999999935E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>7.2280701754385879</v>
       </c>
       <c r="G9">
@@ -3533,11 +4049,11 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.400000000000003E-2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>7.6749435665914287</v>
       </c>
       <c r="N9">
@@ -3557,11 +4073,11 @@
         <v>0.45</v>
       </c>
       <c r="S9">
-        <f>R9-Q9</f>
+        <f t="shared" si="1"/>
         <v>2.4500000000000022E-2</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>3.482587064676621</v>
       </c>
       <c r="U9">
@@ -3581,11 +4097,11 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4.9499999999999988E-2</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7.438016528925619</v>
       </c>
       <c r="AB9">
@@ -3605,19 +4121,133 @@
         <v>0.45</v>
       </c>
       <c r="AG9">
-        <f>AF9-AE9</f>
+        <f t="shared" si="2"/>
         <v>2.4500000000000022E-2</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>2.7237354085603145</v>
       </c>
       <c r="AI9">
         <f>SUM(AH$7:AH9)</f>
         <v>81.767648693718755</v>
       </c>
+      <c r="AJ9" s="2">
+        <v>25</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="AL9">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="AM9">
+        <v>0.51149999999999995</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="3"/>
+        <v>8.5999999999999965E-2</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="15"/>
+        <v>6.9298952457695382</v>
+      </c>
+      <c r="AP9">
+        <f>SUM(AO$7:AO9)</f>
+        <v>87.751813053988727</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>25</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="AS9">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="AT9">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="4"/>
+        <v>0.10349999999999998</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="16"/>
+        <v>11.404958677685945</v>
+      </c>
+      <c r="AW9">
+        <f>SUM(AV$7:AV9)</f>
+        <v>75.757575757575722</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>25</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="AZ9">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="BA9">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="17"/>
+        <v>26.431718061674005</v>
+      </c>
+      <c r="BD9">
+        <f>SUM(BC$7:BC9)</f>
+        <v>56.497797356828187</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>25</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="BG9">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="6"/>
+        <v>-0.42549999999999999</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="18"/>
+        <v>-47.304057809894395</v>
+      </c>
+      <c r="BK9">
+        <f>SUM(BJ$7:BJ9)</f>
+        <v>-165.4252362423569</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>25</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="BN9">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="BP9">
+        <f t="shared" si="7"/>
+        <v>-0.42549999999999999</v>
+      </c>
+      <c r="BQ9">
+        <f t="shared" si="19"/>
+        <v>-47.304057809894395</v>
+      </c>
+      <c r="BR9">
+        <f>SUM(BQ$7:BQ9)</f>
+        <v>-165.4252362423569</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>60</v>
       </c>
@@ -3631,11 +4261,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E10">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>0.12500000000000006</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>17.543859649122815</v>
       </c>
       <c r="G10">
@@ -3655,11 +4285,11 @@
         <v>0.40649999999999997</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2.5499999999999967E-2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5.7562076749435596</v>
       </c>
       <c r="N10">
@@ -3679,11 +4309,11 @@
         <v>0.437</v>
       </c>
       <c r="S10">
-        <f>R10-Q10</f>
+        <f t="shared" si="1"/>
         <v>5.6499999999999995E-2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>8.0312722103766898</v>
       </c>
       <c r="U10">
@@ -3703,11 +4333,11 @@
         <v>0.437</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.4147257700976699</v>
       </c>
       <c r="AB10">
@@ -3727,19 +4357,133 @@
         <v>0.50049999999999994</v>
       </c>
       <c r="AG10">
-        <f>AF10-AE10</f>
+        <f t="shared" si="2"/>
         <v>0.11949999999999994</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>13.285158421345189</v>
       </c>
       <c r="AI10">
         <f>SUM(AH$7:AH10)</f>
         <v>95.052807115063942</v>
       </c>
+      <c r="AJ10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AL10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AM10">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="3"/>
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="15"/>
+        <v>8.7026591458501201</v>
+      </c>
+      <c r="AP10">
+        <f>SUM(AO$7:AO10)</f>
+        <v>96.454472199838847</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AS10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AT10">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="4"/>
+        <v>0.16500000000000004</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="16"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AW10">
+        <f>SUM(AV$7:AV10)</f>
+        <v>93.939393939393909</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>60</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AZ10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BA10">
+        <v>0.6855</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="5"/>
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="17"/>
+        <v>33.53524229074889</v>
+      </c>
+      <c r="BD10">
+        <f>SUM(BC$7:BC10)</f>
+        <v>90.033039647577084</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>60</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="BG10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="6"/>
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="18"/>
+        <v>-42.356864924958323</v>
+      </c>
+      <c r="BK10">
+        <f>SUM(BJ$7:BJ10)</f>
+        <v>-207.78210116731523</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>60</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="BN10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="BP10">
+        <f t="shared" si="7"/>
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" si="19"/>
+        <v>-42.356864924958323</v>
+      </c>
+      <c r="BR10">
+        <f>SUM(BQ$7:BQ10)</f>
+        <v>-207.78210116731523</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>170</v>
       </c>
@@ -3753,11 +4497,11 @@
         <v>0.40749999999999997</v>
       </c>
       <c r="E11">
-        <f>D11-C11</f>
+        <f t="shared" si="0"/>
         <v>2.6499999999999968E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.7192982456140311</v>
       </c>
       <c r="G11">
@@ -3777,11 +4521,11 @@
         <v>0.36749999999999999</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8.5000000000000075E-3</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1.9187358916478572</v>
       </c>
       <c r="N11">
@@ -3801,11 +4545,11 @@
         <v>0.3755</v>
       </c>
       <c r="S11">
-        <f>R11-Q11</f>
+        <f t="shared" si="1"/>
         <v>1.6500000000000015E-2</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2.3454157782516019</v>
       </c>
       <c r="U11">
@@ -3825,11 +4569,11 @@
         <v>0.36649999999999999</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>7.5000000000000067E-3</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.1269722013523675</v>
       </c>
       <c r="AB11">
@@ -3849,19 +4593,133 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="AG11">
-        <f>AF11-AE11</f>
+        <f t="shared" si="2"/>
         <v>2.8000000000000025E-2</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>3.1128404669260736</v>
       </c>
       <c r="AI11">
         <f>SUM(AH$7:AH11)</f>
         <v>98.165647581990015</v>
       </c>
+      <c r="AJ11" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AL11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AM11">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="3"/>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="15"/>
+        <v>1.7727639000805817</v>
+      </c>
+      <c r="AP11">
+        <f>SUM(AO$7:AO11)</f>
+        <v>98.227236099919423</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>170</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AS11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AT11">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="4"/>
+        <v>2.9500000000000026E-2</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="16"/>
+        <v>3.2506887052341624</v>
+      </c>
+      <c r="AW11">
+        <f>SUM(AV$7:AV11)</f>
+        <v>97.190082644628077</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>170</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="AZ11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="BA11">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="BB11">
+        <f t="shared" si="5"/>
+        <v>5.149999999999999E-2</v>
+      </c>
+      <c r="BC11">
+        <f t="shared" si="17"/>
+        <v>5.6718061674008791</v>
+      </c>
+      <c r="BD11">
+        <f>SUM(BC$7:BC11)</f>
+        <v>95.704845814977958</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>170</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="BG11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="BI11">
+        <f t="shared" si="6"/>
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="BJ11">
+        <f t="shared" si="18"/>
+        <v>-39.911061700944977</v>
+      </c>
+      <c r="BK11">
+        <f>SUM(BJ$7:BJ11)</f>
+        <v>-247.6931628682602</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>170</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="BN11">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="BP11">
+        <f t="shared" si="7"/>
+        <v>-0.35899999999999999</v>
+      </c>
+      <c r="BQ11">
+        <f t="shared" si="19"/>
+        <v>-39.911061700944977</v>
+      </c>
+      <c r="BR11">
+        <f>SUM(BQ$7:BQ11)</f>
+        <v>-247.6931628682602</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>230</v>
       </c>
@@ -3875,11 +4733,11 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="E12">
-        <f>D12-C12</f>
+        <f t="shared" si="0"/>
         <v>4.3000000000000038E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>6.0350877192982519</v>
       </c>
       <c r="G12">
@@ -3899,11 +4757,11 @@
         <v>0.39550000000000002</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0.67720090293453783</v>
       </c>
       <c r="N12">
@@ -3923,11 +4781,11 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="S12">
-        <f>R12-Q12</f>
+        <f t="shared" si="1"/>
         <v>9.000000000000008E-3</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.2793176972281466</v>
       </c>
       <c r="U12">
@@ -3947,11 +4805,11 @@
         <v>0.39250000000000002</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5.0000000000000044E-4</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7.513148009015784E-2</v>
       </c>
       <c r="AB12">
@@ -3971,19 +4829,133 @@
         <v>0.39400000000000002</v>
       </c>
       <c r="AG12">
-        <f>AF12-AE12</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.2223457476375767</v>
       </c>
       <c r="AI12">
         <f>SUM(AH$7:AH12)</f>
         <v>98.387993329627591</v>
       </c>
+      <c r="AJ12" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AL12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="AM12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <f>SUM(AO$7:AO12)</f>
+        <v>98.227236099919423</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>230</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AS12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AT12">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="16"/>
+        <v>0.11019283746556481</v>
+      </c>
+      <c r="AW12">
+        <f>SUM(AV$7:AV12)</f>
+        <v>97.300275482093639</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>230</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AZ12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="BA12">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="17"/>
+        <v>0.4405286343612338</v>
+      </c>
+      <c r="BD12">
+        <f>SUM(BC$7:BC12)</f>
+        <v>96.145374449339187</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>230</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="BG12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="6"/>
+        <v>-0.39250000000000002</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="18"/>
+        <v>-43.635352973874383</v>
+      </c>
+      <c r="BK12">
+        <f>SUM(BJ$7:BJ12)</f>
+        <v>-291.32851584213461</v>
+      </c>
+      <c r="BL12" s="2">
+        <v>230</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="BN12">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="7"/>
+        <v>-0.39250000000000002</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="19"/>
+        <v>-43.635352973874383</v>
+      </c>
+      <c r="BR12">
+        <f>SUM(BQ$7:BQ12)</f>
+        <v>-291.32851584213461</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -3995,11 +4967,11 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="E13">
-        <f>D13-C13</f>
+        <f t="shared" si="0"/>
         <v>2.0500000000000018E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>2.8771929824561431</v>
       </c>
       <c r="G13">
@@ -4017,11 +4989,11 @@
         <v>0.372</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8.5000000000000075E-3</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1.9187358916478572</v>
       </c>
       <c r="N13">
@@ -4039,11 +5011,11 @@
         <v>0.40949999999999998</v>
       </c>
       <c r="S13">
-        <f>R13-Q13</f>
+        <f t="shared" si="1"/>
         <v>4.5999999999999985E-2</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6.5387348969438515</v>
       </c>
       <c r="U13">
@@ -4061,11 +5033,11 @@
         <v>0.372</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>8.5000000000000075E-3</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.2772351615326833</v>
       </c>
       <c r="AB13">
@@ -4083,19 +5055,123 @@
         <v>0.378</v>
       </c>
       <c r="AG13">
-        <f>AF13-AE13</f>
+        <f t="shared" si="2"/>
         <v>1.4500000000000013E-2</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.6120066703724309</v>
       </c>
       <c r="AI13">
         <f>SUM(AH$7:AH13)</f>
         <v>100.00000000000003</v>
       </c>
+      <c r="AJ13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK13" s="2"/>
+      <c r="AL13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="AM13">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="3"/>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="15"/>
+        <v>1.7727639000805817</v>
+      </c>
+      <c r="AP13">
+        <f>SUM(AO$7:AO13)</f>
+        <v>100</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR13" s="2"/>
+      <c r="AS13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="AT13">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="4"/>
+        <v>2.4500000000000022E-2</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="16"/>
+        <v>2.6997245179063381</v>
+      </c>
+      <c r="AW13">
+        <f>SUM(AV$7:AV13)</f>
+        <v>99.999999999999972</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY13" s="2"/>
+      <c r="AZ13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="BA13">
+        <v>0.39850000000000002</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="5"/>
+        <v>3.5000000000000031E-2</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="17"/>
+        <v>3.854625550660796</v>
+      </c>
+      <c r="BD13">
+        <f>SUM(BC$7:BC13)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="BE13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF13" s="2"/>
+      <c r="BG13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="6"/>
+        <v>-0.36349999999999999</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="18"/>
+        <v>-40.411339633129529</v>
+      </c>
+      <c r="BK13">
+        <f>SUM(BJ$7:BJ13)</f>
+        <v>-331.73985547526411</v>
+      </c>
+      <c r="BL13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM13" s="2"/>
+      <c r="BN13">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="7"/>
+        <v>-0.36349999999999999</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="19"/>
+        <v>-40.411339633129529</v>
+      </c>
+      <c r="BR13">
+        <f>SUM(BQ$7:BQ13)</f>
+        <v>-331.73985547526411</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="E14">
         <f>SUM(E7:E13)</f>
         <v>0.71249999999999991</v>
@@ -4116,8 +5192,112 @@
         <f>SUM(AG7:AG13)</f>
         <v>0.89949999999999974</v>
       </c>
+      <c r="AN14">
+        <f>SUM(AN7:AN13)</f>
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="AU14">
+        <f>SUM(AU7:AU13)</f>
+        <v>0.9075000000000002</v>
+      </c>
+      <c r="BB14">
+        <f>SUM(BB7:BB13)</f>
+        <v>0.90800000000000014</v>
+      </c>
+      <c r="BI14">
+        <f>SUM(BI7:BI13)</f>
+        <v>-2.984</v>
+      </c>
+      <c r="BP14">
+        <f>SUM(BP7:BP13)</f>
+        <v>-2.984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <f>SUM(F11:F13)</f>
+        <v>12.631578947368425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <f>SUM(M11:M13)</f>
+        <v>4.5146726862302522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <f>SUM(T11:T13)</f>
+        <v>10.163468372423599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <f>SUM(AA11:AA13)</f>
+        <v>2.479338842975209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <f>SUM(AH11:AH13)</f>
+        <v>4.9471928849360811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <f>SUM(AO11:AO13)</f>
+        <v>3.5455278001611634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <f>SUM(AV11:AV13)</f>
+        <v>6.0606060606060659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SoilSieve.xlsx
+++ b/SoilSieve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814EDD86-B2FA-44E4-A42D-BBCBF80CA557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E90A92E-6B8D-4760-B0B5-CE5BBA99FB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
   </bookViews>
@@ -2993,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD1B245-CE1D-4C71-A328-07C1CCEBBC26}">
   <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="BC16" sqref="BC16"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="BV15" sqref="BV15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3163,22 +3163,19 @@
         <v>12</v>
       </c>
       <c r="AY2" s="2"/>
-      <c r="AZ2">
-        <v>1.254</v>
-      </c>
       <c r="BE2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2">
-        <v>1.254</v>
+        <v>0.33050000000000002</v>
       </c>
       <c r="BL2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="BM2" s="2"/>
       <c r="BN2">
-        <v>1.254</v>
+        <v>0.81399999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.3">
@@ -3743,13 +3740,16 @@
       <c r="BG7">
         <v>0.6</v>
       </c>
+      <c r="BH7">
+        <v>0.63900000000000001</v>
+      </c>
       <c r="BI7">
         <f t="shared" ref="BI7:BI13" si="6">BH7-BG7</f>
-        <v>-0.6</v>
+        <v>3.9000000000000035E-2</v>
       </c>
       <c r="BJ7">
-        <f>BI7/$AG$14*100</f>
-        <v>-66.703724291272948</v>
+        <f>BI7/$BI$14*100</f>
+        <v>12.440191387559816</v>
       </c>
       <c r="BK7">
         <v>76.097830000000002</v>
@@ -3763,13 +3763,16 @@
       <c r="BN7">
         <v>0.6</v>
       </c>
+      <c r="BO7">
+        <v>0.96899999999999997</v>
+      </c>
       <c r="BP7">
         <f t="shared" ref="BP7:BP13" si="7">BO7-BN7</f>
-        <v>-0.6</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="BQ7">
-        <f>BP7/$AG$14*100</f>
-        <v>-66.703724291272948</v>
+        <f>BP7/$BP$14*100</f>
+        <v>56.900539707016193</v>
       </c>
       <c r="BR7">
         <v>76.097830000000002</v>
@@ -3975,19 +3978,22 @@
         <v>1</v>
       </c>
       <c r="BG8">
-        <v>0.46250000000000002</v>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="BH8">
+        <v>0.55000000000000004</v>
       </c>
       <c r="BI8">
         <f t="shared" si="6"/>
-        <v>-0.46250000000000002</v>
+        <v>8.6000000000000021E-2</v>
       </c>
       <c r="BJ8">
-        <f t="shared" ref="BJ8:BJ13" si="18">BI8/$AG$14*100</f>
-        <v>-51.417454141189566</v>
+        <f t="shared" ref="BJ8:BJ13" si="18">BI8/$BI$14*100</f>
+        <v>27.432216905901115</v>
       </c>
       <c r="BK8">
         <f>SUM(BJ$7:BJ8)</f>
-        <v>-118.12117843246251</v>
+        <v>39.872408293460929</v>
       </c>
       <c r="BL8" s="2">
         <v>18</v>
@@ -3996,19 +4002,22 @@
         <v>1</v>
       </c>
       <c r="BN8">
-        <v>0.46250000000000002</v>
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="BO8">
+        <v>0.65749999999999997</v>
       </c>
       <c r="BP8">
         <f t="shared" si="7"/>
-        <v>-0.46250000000000002</v>
+        <v>0.19399999999999995</v>
       </c>
       <c r="BQ8">
-        <f t="shared" ref="BQ8:BQ13" si="19">BP8/$AG$14*100</f>
-        <v>-51.417454141189566</v>
+        <f t="shared" ref="BQ8:BQ13" si="19">BP8/$BP$14*100</f>
+        <v>29.915188897455664</v>
       </c>
       <c r="BR8">
         <f>SUM(BQ$7:BQ8)</f>
-        <v>-118.12117843246251</v>
+        <v>86.815728604471857</v>
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.3">
@@ -4211,19 +4220,22 @@
         <v>0.71</v>
       </c>
       <c r="BG9">
-        <v>0.42549999999999999</v>
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="BH9">
+        <v>0.45750000000000002</v>
       </c>
       <c r="BI9">
         <f t="shared" si="6"/>
-        <v>-0.42549999999999999</v>
+        <v>3.1500000000000028E-2</v>
       </c>
       <c r="BJ9">
         <f t="shared" si="18"/>
-        <v>-47.304057809894395</v>
+        <v>10.047846889952158</v>
       </c>
       <c r="BK9">
         <f>SUM(BJ$7:BJ9)</f>
-        <v>-165.4252362423569</v>
+        <v>49.92025518341309</v>
       </c>
       <c r="BL9" s="2">
         <v>25</v>
@@ -4234,17 +4246,20 @@
       <c r="BN9">
         <v>0.42549999999999999</v>
       </c>
+      <c r="BO9">
+        <v>0.44850000000000001</v>
+      </c>
       <c r="BP9">
         <f t="shared" si="7"/>
-        <v>-0.42549999999999999</v>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="BQ9">
         <f t="shared" si="19"/>
-        <v>-47.304057809894395</v>
+        <v>3.5466461063993862</v>
       </c>
       <c r="BR9">
         <f>SUM(BQ$7:BQ9)</f>
-        <v>-165.4252362423569</v>
+        <v>90.362374710871251</v>
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.3">
@@ -4449,17 +4464,20 @@
       <c r="BG10">
         <v>0.38100000000000001</v>
       </c>
+      <c r="BH10">
+        <v>0.49</v>
+      </c>
       <c r="BI10">
         <f t="shared" si="6"/>
-        <v>-0.38100000000000001</v>
+        <v>0.10899999999999999</v>
       </c>
       <c r="BJ10">
         <f t="shared" si="18"/>
-        <v>-42.356864924958323</v>
+        <v>34.768740031897913</v>
       </c>
       <c r="BK10">
         <f>SUM(BJ$7:BJ10)</f>
-        <v>-207.78210116731523</v>
+        <v>84.688995215310996</v>
       </c>
       <c r="BL10" s="2">
         <v>60</v>
@@ -4470,17 +4488,20 @@
       <c r="BN10">
         <v>0.38100000000000001</v>
       </c>
+      <c r="BO10">
+        <v>0.41549999999999998</v>
+      </c>
       <c r="BP10">
         <f t="shared" si="7"/>
-        <v>-0.38100000000000001</v>
+        <v>3.4499999999999975E-2</v>
       </c>
       <c r="BQ10">
         <f t="shared" si="19"/>
-        <v>-42.356864924958323</v>
+        <v>5.3199691595990712</v>
       </c>
       <c r="BR10">
         <f>SUM(BQ$7:BQ10)</f>
-        <v>-207.78210116731523</v>
+        <v>95.682343870470319</v>
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.3">
@@ -4685,17 +4706,20 @@
       <c r="BG11">
         <v>0.35899999999999999</v>
       </c>
+      <c r="BH11">
+        <v>0.38750000000000001</v>
+      </c>
       <c r="BI11">
         <f t="shared" si="6"/>
-        <v>-0.35899999999999999</v>
+        <v>2.8500000000000025E-2</v>
       </c>
       <c r="BJ11">
         <f t="shared" si="18"/>
-        <v>-39.911061700944977</v>
+        <v>9.0909090909090953</v>
       </c>
       <c r="BK11">
         <f>SUM(BJ$7:BJ11)</f>
-        <v>-247.6931628682602</v>
+        <v>93.779904306220089</v>
       </c>
       <c r="BL11" s="2">
         <v>170</v>
@@ -4706,17 +4730,20 @@
       <c r="BN11">
         <v>0.35899999999999999</v>
       </c>
+      <c r="BO11">
+        <v>0.373</v>
+      </c>
       <c r="BP11">
         <f t="shared" si="7"/>
-        <v>-0.35899999999999999</v>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="BQ11">
         <f t="shared" si="19"/>
-        <v>-39.911061700944977</v>
+        <v>2.1588280647648439</v>
       </c>
       <c r="BR11">
         <f>SUM(BQ$7:BQ11)</f>
-        <v>-247.6931628682602</v>
+        <v>97.841171935235167</v>
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.3">
@@ -4921,17 +4948,20 @@
       <c r="BG12">
         <v>0.39250000000000002</v>
       </c>
+      <c r="BH12">
+        <v>0.39350000000000002</v>
+      </c>
       <c r="BI12">
         <f t="shared" si="6"/>
-        <v>-0.39250000000000002</v>
+        <v>1.0000000000000009E-3</v>
       </c>
       <c r="BJ12">
         <f t="shared" si="18"/>
-        <v>-43.635352973874383</v>
+        <v>0.31897926634768758</v>
       </c>
       <c r="BK12">
         <f>SUM(BJ$7:BJ12)</f>
-        <v>-291.32851584213461</v>
+        <v>94.098883572567772</v>
       </c>
       <c r="BL12" s="2">
         <v>230</v>
@@ -4942,17 +4972,20 @@
       <c r="BN12">
         <v>0.39250000000000002</v>
       </c>
+      <c r="BO12">
+        <v>0.39250000000000002</v>
+      </c>
       <c r="BP12">
         <f t="shared" si="7"/>
-        <v>-0.39250000000000002</v>
+        <v>0</v>
       </c>
       <c r="BQ12">
         <f t="shared" si="19"/>
-        <v>-43.635352973874383</v>
+        <v>0</v>
       </c>
       <c r="BR12">
         <f>SUM(BQ$7:BQ12)</f>
-        <v>-291.32851584213461</v>
+        <v>97.841171935235167</v>
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.3">
@@ -5139,17 +5172,20 @@
       <c r="BG13">
         <v>0.36349999999999999</v>
       </c>
+      <c r="BH13">
+        <v>0.38200000000000001</v>
+      </c>
       <c r="BI13">
         <f t="shared" si="6"/>
-        <v>-0.36349999999999999</v>
+        <v>1.8500000000000016E-2</v>
       </c>
       <c r="BJ13">
         <f t="shared" si="18"/>
-        <v>-40.411339633129529</v>
+        <v>5.9011164274322203</v>
       </c>
       <c r="BK13">
         <f>SUM(BJ$7:BJ13)</f>
-        <v>-331.73985547526411</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="BL13" s="2" t="s">
         <v>11</v>
@@ -5158,17 +5194,20 @@
       <c r="BN13">
         <v>0.36349999999999999</v>
       </c>
+      <c r="BO13">
+        <v>0.3775</v>
+      </c>
       <c r="BP13">
         <f t="shared" si="7"/>
-        <v>-0.36349999999999999</v>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="BQ13">
         <f t="shared" si="19"/>
-        <v>-40.411339633129529</v>
+        <v>2.1588280647648439</v>
       </c>
       <c r="BR13">
         <f>SUM(BQ$7:BQ13)</f>
-        <v>-331.73985547526411</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.3">
@@ -5206,11 +5245,11 @@
       </c>
       <c r="BI14">
         <f>SUM(BI7:BI13)</f>
-        <v>-2.984</v>
+        <v>0.31350000000000011</v>
       </c>
       <c r="BP14">
         <f>SUM(BP7:BP13)</f>
-        <v>-2.984</v>
+        <v>0.64849999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5285,10 +5324,18 @@
       <c r="A25" t="s">
         <v>36</v>
       </c>
+      <c r="B25">
+        <f>SUM(BC11:BC13)</f>
+        <v>9.9669603524229089</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
+      </c>
+      <c r="B26">
+        <f>SUM(BJ11:BJ13)</f>
+        <v>15.311004784689004</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">

--- a/SoilSieve.xlsx
+++ b/SoilSieve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E90A92E-6B8D-4760-B0B5-CE5BBA99FB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212535B3-507E-4E5D-8D53-7A39C55DF2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0D7D8D-8477-49FF-8FC7-9FA8D978A6D2}">
   <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A2" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2993,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD1B245-CE1D-4C71-A328-07C1CCEBBC26}">
   <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="BV15" sqref="BV15"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5342,6 +5342,10 @@
       <c r="A27" t="s">
         <v>38</v>
       </c>
+      <c r="B27">
+        <f>SUM(BQ11:BQ13)</f>
+        <v>4.3176561295296878</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SoilSieve.xlsx
+++ b/SoilSieve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212535B3-507E-4E5D-8D53-7A39C55DF2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1862AB-C83A-445C-ADFA-465102DE7074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A407AC4-2230-4310-AC24-E306ADD91E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:BR27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2954,6 +2954,10 @@
         <f>SUM(AV11:AV13)</f>
         <v>90.368852459016381</v>
       </c>
+      <c r="C24">
+        <f>GEOMEAN(B18:B27)</f>
+        <v>16.589345050480365</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -2994,7 +2998,7 @@
   <dimension ref="A1:BR27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5252,12 +5256,12 @@
         <v>0.64849999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>12.631578947368425</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5275,7 +5279,7 @@
         <v>4.5146726862302522</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5284,7 +5288,7 @@
         <v>10.163468372423599</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>2.479338842975209</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>4.9471928849360811</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -5311,7 +5315,7 @@
         <v>3.5455278001611634</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>6.0606060606060659</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5329,7 +5333,7 @@
         <v>9.9669603524229089</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5337,8 +5341,12 @@
         <f>SUM(BJ11:BJ13)</f>
         <v>15.311004784689004</v>
       </c>
+      <c r="C26">
+        <f>GEOMEAN(B18:B27)</f>
+        <v>6.3136892132374633</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
